--- a/medicine/Psychotrope/Convention_sur_les_substances_psychotropes/Convention_sur_les_substances_psychotropes.xlsx
+++ b/medicine/Psychotrope/Convention_sur_les_substances_psychotropes/Convention_sur_les_substances_psychotropes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La convention sur les substances psychotropes de 1971, convoquée par l'ONU, fut ratifiée le 21 février 1971 à Vienne par 34 pays et fut mise en application en 1976. Cette convention comporte actuellement 183 signataires (au 1er décembre 2013).
 Son objectif est de limiter la production et le commerce de substances psychotropes synthétiques en établissant une liste de ces substances.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les premières réglementations internationales concernant les drogues datent du début du XXe siècle.
 En 1912, tout d'abord avec la convention internationale de l'opium, visant à réglementer l'import-export des dérivés du pavot. Ce traité fut complété avec d'autres substances comme la cocaïne pendant les 50 années qui suivirent.
@@ -548,15 +562,87 @@
           <t>Listes des substances psychotropes.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'instar de la Convention unique sur les stupéfiants de 1961, la Convention de 1971 liste en quatre tableaux les substances psychotropes soumises au régime légal qu'elle établit.
-Évolution de la liste
-La convention dans son article 2 prévoit l'ajout de nouvelles drogues dans la liste. Cet ajout se fait via l'OMS qui doit constater si la substance correspond aux définitions de la convention et évaluer le potentiel d'abus et le potentiel thérapeutique du produit. C'est la commission des stupéfiants des Nations unies qui statue à terme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Convention_sur_les_substances_psychotropes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convention_sur_les_substances_psychotropes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Listes des substances psychotropes.</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Évolution de la liste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La convention dans son article 2 prévoit l'ajout de nouvelles drogues dans la liste. Cet ajout se fait via l'OMS qui doit constater si la substance correspond aux définitions de la convention et évaluer le potentiel d'abus et le potentiel thérapeutique du produit. C'est la commission des stupéfiants des Nations unies qui statue à terme.
 De même les drogues peuvent être déplacées d'un tableau à l'autre ou radiées de la liste suivant le même type de procédure.
-En mars 2019, la Commission a ajouté au tableau 2 l'ADB-FUBINACA, FUB-AMB (MMB-FUBINACA, AMB-FUBINACA), CUMYL-4CN-BINACA, ADB-CHMINACA (MAB-CHMINACA), et N-ethylnorpentylone (ephylone)[1].
-Usage rituel ou religieux
-Dans son article 32, la convention prévoit que « tout État sur le territoire duquel poussent à l’état sauvage des plantes contenant des substances psychotropes du Tableau I utilisées traditionnellement par certains groupes restreints bien déterminés à l’occasion de cérémonies magiques ou religieuses peut, au moment de la signature, de la ratification ou de l’adhésion, faire des réserves concernant ces plantes sur les dispositions de l’article 7, sauf sur celles relatives au commerce international. »
+En mars 2019, la Commission a ajouté au tableau 2 l'ADB-FUBINACA, FUB-AMB (MMB-FUBINACA, AMB-FUBINACA), CUMYL-4CN-BINACA, ADB-CHMINACA (MAB-CHMINACA), et N-ethylnorpentylone (ephylone).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Convention_sur_les_substances_psychotropes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Convention_sur_les_substances_psychotropes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Listes des substances psychotropes.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Usage rituel ou religieux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son article 32, la convention prévoit que « tout État sur le territoire duquel poussent à l’état sauvage des plantes contenant des substances psychotropes du Tableau I utilisées traditionnellement par certains groupes restreints bien déterminés à l’occasion de cérémonies magiques ou religieuses peut, au moment de la signature, de la ratification ou de l’adhésion, faire des réserves concernant ces plantes sur les dispositions de l’article 7, sauf sur celles relatives au commerce international. »
 </t>
         </is>
       </c>
